--- a/biology/Botanique/Liste_des_espèces_du_genre_Amanita/Liste_des_espèces_du_genre_Amanita.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Amanita/Liste_des_espèces_du_genre_Amanita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cet article regroupe l'ensemble des espèces de champignons (Fungi) du genre Amanita. En avril 2022, Index Fungorum liste 712 espèces au sein de ce genre[1],[2].
+Cet article regroupe l'ensemble des espèces de champignons (Fungi) du genre Amanita. En avril 2022, Index Fungorum liste 712 espèces au sein de ce genre,.
 Sommaire :
 Haut – A
 B
@@ -521,7 +533,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,7 +551,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amanita abietinum E.-J.Gilbert
 Amanita abietum E.-J.Gilbert
@@ -625,7 +639,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -643,7 +657,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Amanita baccata (Fr.) Gillet
 Amanita badia (Schaeff.) Bon &amp; Contu
@@ -693,7 +709,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -711,7 +727,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amanita caesarea (Scop.) Pers.
 Amanita caesareoides Lj.N.Vassiljeva
@@ -800,7 +818,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -818,7 +836,9 @@
           <t>D</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amanita daucipes (Sacc.) Lloyd
 Amanita decipiens (Trimbach) Jacquet.
@@ -845,7 +865,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -863,7 +883,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amanita eburnea Tulloss
 Amanita echinocephala (Vittad.) Quél.
@@ -896,7 +918,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -914,7 +936,9 @@
           <t>F</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Amanita farinacea (Sacc.) Cleland &amp; Cheel
 Amanita farinosa Schwein.
@@ -967,7 +991,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -985,7 +1009,9 @@
           <t>G</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Amanita garabitoana Tulloss, Halling &amp; G.M.Muell.
 Amanita gardneri E.M.Davison
@@ -1034,7 +1060,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1052,7 +1078,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Amanita hamadae Nagas. &amp; Hongo
 Amanita harkoneniana Fraiture &amp; Saarimäki
@@ -1079,7 +1107,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1097,7 +1125,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Amanita ibotengutake T.Oda, C.Tanaka &amp; Tsuda
 Amanita illudens Sacc.
@@ -1122,7 +1152,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1140,7 +1170,9 @@
           <t>J</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Amanita jacksonii Pomerl.
 Amanita jacoblangei E.H.L.Krause
@@ -1155,7 +1187,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1173,7 +1205,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Amanita kalamundae O.K.Mill.
 Amanita kammala Grgur.
@@ -1192,7 +1226,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1210,7 +1244,9 @@
           <t>L</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Amanita labordei Bouriquet
 Amanita lactea Malençon, Romagn. &amp; D.A.Reid
@@ -1251,7 +1287,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1269,7 +1305,9 @@
           <t>M</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Amanita macrocarpa W.Q.Deng, T.H.Li &amp; Zhu L.Yang
 Amanita macrospora H.L.Stewart &amp; Grund
@@ -1323,7 +1361,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1341,7 +1379,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t>Amanita neglecta Boedijn
 Amanita nehuta G.S.Ridl.
@@ -1363,7 +1403,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1381,7 +1421,9 @@
           <t>O</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>Amanita oberwinkleriana Zhu L.Yang &amp; Yoshim.Doi
 Amanita oblongospora Contu
@@ -1417,7 +1459,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1435,7 +1477,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Amanita pachycolea D.E.Stuntz
 Amanita pachysperma G.F.Atk.
@@ -1524,7 +1568,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1542,7 +1586,9 @@
           <t>Q</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>Amanita queletii Bon &amp; Dennis
 Amanita quenda E.M.Davison</t>
@@ -1555,7 +1601,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1573,7 +1619,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Amanita radiata D.T.Jenkins
 Amanita rajendrae Mehmood, K.Das &amp; P.Uniyal
@@ -1612,7 +1660,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1630,7 +1678,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>Amanita salmonea Thiers
 Amanita salmonescens Tulloss
@@ -1719,7 +1769,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1737,7 +1787,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
         <is>
           <t>Amanita taiepa G.S.Ridl.
 Amanita tainaomby R.Heim ex E.-J.Gilbert
@@ -1766,7 +1818,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1784,7 +1836,9 @@
           <t>U</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
         <is>
           <t>Amanita umbrinella (E.-J.Gilbert &amp; Cleland) E.-J.Gilbert
 Amanita umbrinelloides A.E.Wood
@@ -1799,7 +1853,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1817,7 +1871,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
         <is>
           <t>Amanita vaginata (Bull.) Lam.
 Amanita valens (E.-J.Gilbert) Bertault
@@ -1852,7 +1908,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1870,7 +1926,9 @@
           <t>W</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Amanita wadjukiorum E.M.Davison
 Amanita wadulawitu McGurk, E.M.Davison &amp; E.L.J.Watkin
@@ -1888,7 +1946,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1906,7 +1964,9 @@
           <t>X</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Amanita xanthella Corner &amp; Bas
 Amanita xanthocephala (Berk.) D.A.Reid &amp; R.N.Hilton
@@ -1923,7 +1983,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1941,7 +2001,9 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Amanita yema Guzmán &amp; Ram.-Guill.
 Amanita yenii Zhu L.Yang &amp; C.M.Chen
@@ -1956,7 +2018,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Amanita</t>
+          <t>Liste_des_espèces_du_genre_Amanita</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1974,7 +2036,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Amanita zambiana Pegler &amp; Piearce
 Amanita zonata Y.Y.Cui, Qing Cai &amp; Zhu L.Yang</t>
